--- a/Nowcasts/2025Q4/tables/nowcasts_2026Q1_Nr3_Np3_Nj1.xlsx
+++ b/Nowcasts/2025Q4/tables/nowcasts_2026Q1_Nr3_Np3_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Row</t>
   </si>
@@ -109,6 +109,57 @@
   </si>
   <si>
     <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -191,56 +242,56 @@
     <col min="2" max="2" width="12.64453125" customWidth="true"/>
     <col min="3" max="3" width="15.24609375" customWidth="true"/>
     <col min="4" max="4" width="16.24609375" customWidth="true"/>
-    <col min="5" max="5" width="15.77734375" customWidth="true"/>
+    <col min="5" max="5" width="16.24609375" customWidth="true"/>
     <col min="6" max="6" width="16.24609375" customWidth="true"/>
-    <col min="7" max="7" width="15.77734375" customWidth="true"/>
-    <col min="8" max="8" width="16.24609375" customWidth="true"/>
+    <col min="7" max="7" width="15.64453125" customWidth="true"/>
+    <col min="8" max="8" width="15.77734375" customWidth="true"/>
     <col min="9" max="9" width="16.24609375" customWidth="true"/>
-    <col min="10" max="10" width="15.64453125" customWidth="true"/>
+    <col min="10" max="10" width="15.046875" customWidth="true"/>
     <col min="11" max="11" width="16.24609375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B2" s="0">
-        <v>0.27979150330717956</v>
+        <v>0.21184009455001104</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -272,177 +323,177 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0">
-        <v>0.29563191756429413</v>
+        <v>0.22310998031898804</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.00025861708864330867</v>
+        <v>-0.0032488356859178094</v>
       </c>
       <c r="E3" s="0">
-        <v>-7.6187171378113829e-05</v>
+        <v>0.00077988357366869478</v>
       </c>
       <c r="F3" s="0">
-        <v>0.0018646344855183204</v>
+        <v>-0.00049760301641281262</v>
       </c>
       <c r="G3" s="0">
-        <v>0.00018220564161206424</v>
+        <v>0.00038023423017612368</v>
       </c>
       <c r="H3" s="0">
-        <v>2.5994011421352317e-05</v>
+        <v>-3.1275765540675734e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.00011690716550805942</v>
+        <v>-0.00038118534094179821</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>0.00014866757846065948</v>
+        <v>0.001314964232311977</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B4" s="0">
-        <v>0.32765455365485152</v>
+        <v>0.27351973408444513</v>
       </c>
       <c r="C4" s="0">
-        <v>0.011262095237836077</v>
+        <v>0.031294021432626204</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>9.3282588546815754e-06</v>
+        <v>-9.6682515044443842e-05</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.00010787704279103308</v>
+        <v>6.7105057241566049e-06</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>1.3553636953827454e-05</v>
+        <v>0.0003079208657063375</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.00010992376540828348</v>
+        <v>-0.0078592841741164671</v>
       </c>
       <c r="J4" s="0">
-        <v>0.00044245757514224069</v>
+        <v>0.0026728064131267492</v>
       </c>
       <c r="K4" s="0">
-        <v>-4.728589683444806e-05</v>
+        <v>-0.00033981584349859761</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B5" s="0">
-        <v>0.34497242309343273</v>
+        <v>0.31091449757470208</v>
       </c>
       <c r="C5" s="0">
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>0.0038235326300408543</v>
+        <v>-0.00037406804327809695</v>
       </c>
       <c r="E5" s="0">
-        <v>0.00022375953654953093</v>
+        <v>-0.0005103709796208945</v>
       </c>
       <c r="F5" s="0">
-        <v>0.00059205051377693462</v>
+        <v>0.008100774299812756</v>
       </c>
       <c r="G5" s="0">
-        <v>0.00017332117618859859</v>
+        <v>-0.0014166654349437207</v>
       </c>
       <c r="H5" s="0">
-        <v>6.3443085718954052e-05</v>
+        <v>0.00062379343486093522</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.00058495409807747892</v>
+        <v>-0.0007574860261844096</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>0.0066838458559224101</v>
+        <v>-0.0080559434116561635</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B6" s="0">
-        <v>0.30384079282070359</v>
+        <v>0.32209252124241006</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.0090540720280143268</v>
+        <v>-0.0095602532655141865</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>1.8764779818335887e-05</v>
+        <v>-0.00023792804954960006</v>
       </c>
       <c r="F6" s="0">
-        <v>-7.6403266079724734e-05</v>
+        <v>0.00040164085971253796</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-7.9535089403199528e-05</v>
+        <v>0.0004711121620692901</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.00064216509272382015</v>
+        <v>-0.0048929804381686636</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>0.00047442174852047048</v>
+        <v>-0.00029417093800410132</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B7" s="0">
-        <v>0.28151653402350185</v>
+        <v>0.31163188898418925</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0029782250351039741</v>
+        <v>-0.012718350478852315</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.0012676314562043145</v>
+        <v>-0.0020249812157823338</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.00075840373241924022</v>
+        <v>0.0076923082982831561</v>
       </c>
       <c r="G7" s="0">
-        <v>-9.7261079460560638e-05</v>
+        <v>0.003122185810405628</v>
       </c>
       <c r="H7" s="0">
-        <v>-2.6384215139215985e-05</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>-5.1027144812789863e-05</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.0080256261923343786</v>
+        <v>0.0056422366621722841</v>
       </c>
     </row>
     <row r="8">
